--- a/data/trans_camb/PCS12_SP_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.729742203924163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.831393005064001</v>
+        <v>1.831393005064004</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.799912024280385</v>
@@ -655,7 +655,7 @@
         <v>-2.612330905159099</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.107461658969068</v>
+        <v>2.107461658969062</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.3868265216486089</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.318345742143452</v>
+        <v>-3.436528379618527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.869460347751364</v>
+        <v>-2.656993655689088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.25566598913395</v>
+        <v>-2.6497686964434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.744016814411781</v>
+        <v>-8.605894200611102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.147775846096023</v>
+        <v>-8.828791032525043</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.351247234712728</v>
+        <v>-3.180475563783566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.043434821064602</v>
+        <v>-4.057644348226686</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.632071472127137</v>
+        <v>-3.49002014332387</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.04451803679762</v>
+        <v>-0.7952011505159572</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.63520284341083</v>
+        <v>6.000871235334654</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.647181039990778</v>
+        <v>6.5695673359253</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.004548293896462</v>
+        <v>5.694341591039054</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.931161932730168</v>
+        <v>3.75547702068067</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.267904909456353</v>
+        <v>3.422856006971083</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.11252986590473</v>
+        <v>7.354096117829478</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.255152455293927</v>
+        <v>3.50697253114827</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.87777314763932</v>
+        <v>4.124093409920498</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.621074677567339</v>
+        <v>5.909134597588892</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1439888692158618</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.152450583266549</v>
+        <v>0.1524505832665493</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1544035202538588</v>
@@ -760,7 +760,7 @@
         <v>-0.1440592005486963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1162177583163504</v>
+        <v>0.1162177583163501</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.02682912377934694</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2301583955536683</v>
+        <v>-0.243790745516211</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2213271665496778</v>
+        <v>-0.1994926551234012</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1661442630028024</v>
+        <v>-0.1816819919413384</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4173229185138762</v>
+        <v>-0.4052382583687233</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4203234378171747</v>
+        <v>-0.4147488560019128</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1543774086444818</v>
+        <v>-0.1500386848871441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2500602623182691</v>
+        <v>-0.2551842385993394</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.223216268678827</v>
+        <v>-0.218118173755932</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.06762944864201823</v>
+        <v>-0.04667452546949375</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5663301707976434</v>
+        <v>0.5952046801613361</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6630953208054635</v>
+        <v>0.6343494818671713</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6243717668326868</v>
+        <v>0.5732331394202896</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2634800931572467</v>
+        <v>0.2582502429172381</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2279255585820861</v>
+        <v>0.2343766411915497</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4880980182518274</v>
+        <v>0.5024129363263187</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2522525891809724</v>
+        <v>0.2678839636916389</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3017141961061791</v>
+        <v>0.3614112843885415</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4519621390447026</v>
+        <v>0.4739610888236443</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>1.826909094102642</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.498405732081093</v>
+        <v>8.498405732081087</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.481865842463161</v>
+        <v>1.326206440117566</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.568770457670364</v>
+        <v>-2.739255162868544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.313853053344517</v>
+        <v>3.348321843184305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.644117203678968</v>
+        <v>-4.306138048279079</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.522892321202545</v>
+        <v>-3.352965247535628</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.450006335686075</v>
+        <v>4.653665779764326</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3399400934621067</v>
+        <v>0.482660982817476</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.721507423545374</v>
+        <v>-1.667166218123777</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.003060634507252</v>
+        <v>4.951984916867739</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.42771150224752</v>
+        <v>11.02564259011291</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.990793469670938</v>
+        <v>6.636879839380063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.3137962484739</v>
+        <v>12.90497981185871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.740620823960981</v>
+        <v>6.831906247884083</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.169171571407254</v>
+        <v>7.046868801910673</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>14.23185361106889</v>
+        <v>14.05626260675734</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.460417638090402</v>
+        <v>7.737515640458062</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.249336339123096</v>
+        <v>5.393419688469683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.67752009598623</v>
+        <v>11.3978028068779</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1679309587789364</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7811803155875057</v>
+        <v>0.7811803155875051</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1064855374057547</v>
+        <v>0.1196600551015336</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2392222184246416</v>
+        <v>-0.2533395514190768</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2796082394811221</v>
+        <v>0.2640781607902519</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2347200947085877</v>
+        <v>-0.2850235466230556</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.230250779097599</v>
+        <v>-0.233712371289423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2818447629730839</v>
+        <v>0.3123807453213231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02595709039301433</v>
+        <v>0.0367557596683988</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1435807864582514</v>
+        <v>-0.1307316600537675</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3737891492703982</v>
+        <v>0.3902845234527623</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.58937633525715</v>
+        <v>1.591200343463671</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.03034073399548</v>
+        <v>0.9174827477968541</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.816899191929332</v>
+        <v>1.924764108131216</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6477416820174222</v>
+        <v>0.691665392771999</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7349644440561807</v>
+        <v>0.6938306513872414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.408647274525205</v>
+        <v>1.44427855631503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.819814298101299</v>
+        <v>0.8569762643994041</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.574605091891116</v>
+        <v>0.582897013566122</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.271706882174537</v>
+        <v>1.284886028310362</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.092294500313012</v>
+        <v>0.9873819053846539</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.597611442970167</v>
+        <v>-1.621724191570346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.427252972408656</v>
+        <v>3.884779283093012</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.274542406244773</v>
+        <v>-7.108505075892209</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.085508373681794</v>
+        <v>-6.858682192973994</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.491657745165841</v>
+        <v>2.298220989816333</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.151744697560696</v>
+        <v>1.235522932725791</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.84418273672644</v>
+        <v>-1.452100290084887</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.699274729492195</v>
+        <v>5.755195311730451</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.39407559168085</v>
+        <v>10.45638997037144</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.463319757382919</v>
+        <v>7.763619485007498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.13942261853671</v>
+        <v>13.27881202804186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.64890428221532</v>
+        <v>10.14838464632992</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.01934788187341</v>
+        <v>14.3257443137046</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.15610916971811</v>
+        <v>21.55112351643939</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.304868639668475</v>
+        <v>9.212400820082467</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.103430998409152</v>
+        <v>7.032177060213199</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.24873654810729</v>
+        <v>14.01545530318796</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04798831883256054</v>
+        <v>0.05488821716937219</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1018096521014762</v>
+        <v>-0.08745482491338222</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1882284263830385</v>
+        <v>0.2048915538380525</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2506848305129311</v>
+        <v>-0.2194199311055807</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.260773429589145</v>
+        <v>-0.2166729542685808</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07711259936430526</v>
+        <v>0.06671603702858489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05337945720924464</v>
+        <v>0.06114716420120708</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09198394045912807</v>
+        <v>-0.07033266561648445</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2750262663139016</v>
+        <v>0.2740958417383748</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7250998594117102</v>
+        <v>0.7428327148401777</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5405148417998475</v>
+        <v>0.5524595694880734</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9243786864131932</v>
+        <v>0.9207770213161519</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4820276061923871</v>
+        <v>0.4491750618581067</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6078671681691842</v>
+        <v>0.6325754973449461</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9222713820039471</v>
+        <v>0.9987216021083891</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5598709816501942</v>
+        <v>0.5491924355585388</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4280338014940031</v>
+        <v>0.4202872380851375</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.859924552929842</v>
+        <v>0.8392691846603619</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-3.486408519673853</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.895224679158957</v>
+        <v>3.895224679158962</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.8998808989198082</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.488015657042661</v>
+        <v>-3.348391237680633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.818781978611705</v>
+        <v>-4.748711895492657</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.918615473273364</v>
+        <v>1.648146090547806</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.825550049299656</v>
+        <v>-7.049189044913895</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.709439602508669</v>
+        <v>-7.945001532381574</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.09544185635090256</v>
+        <v>-0.511345404539565</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.623962862305661</v>
+        <v>-3.398278496585536</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.882862957791934</v>
+        <v>-4.969577438194113</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.320684073344603</v>
+        <v>2.16145446307686</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.355812542821192</v>
+        <v>3.458944207697702</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.44395082716586</v>
+        <v>1.576732341518905</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.740501000258005</v>
+        <v>8.889023885415275</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.668627841411436</v>
+        <v>1.96459164885754</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6889438887395872</v>
+        <v>0.6173585022018797</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.611089195812563</v>
+        <v>7.692385809097336</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.635774665573942</v>
+        <v>1.842713348910287</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05813031815417193</v>
+        <v>0.4796463436621816</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.429648302140836</v>
+        <v>7.333583766418323</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1521502558983825</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1699913903867962</v>
+        <v>0.1699913903867964</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.04155108750733977</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1512704541967585</v>
+        <v>-0.148637171175177</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2157642515529071</v>
+        <v>-0.2156625899089235</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.0814547097341696</v>
+        <v>0.07581480637451732</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2720471524591986</v>
+        <v>-0.2787475750142439</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3144311131497917</v>
+        <v>-0.3121415770232263</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.003516894903666835</v>
+        <v>-0.02220733357953755</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1568452439150028</v>
+        <v>-0.1483972699215597</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2169783761292716</v>
+        <v>-0.2190752188947453</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.09825502513596299</v>
+        <v>0.09364230724487115</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.174884281876622</v>
+        <v>0.1812854378291598</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07349966720357766</v>
+        <v>0.082407410041571</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.453052192570512</v>
+        <v>0.4570724315192957</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.08475052433911687</v>
+        <v>0.09505321925200863</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03163015037122275</v>
+        <v>0.03152512028886387</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3661918117239999</v>
+        <v>0.3750594066430264</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0820653653507238</v>
+        <v>0.09211698928020529</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.003411432188446239</v>
+        <v>0.02513321776347184</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3644242688481487</v>
+        <v>0.358870707910218</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.585951883282014</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.28246816248865</v>
+        <v>6.282468162488655</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9.981020257514977</v>
@@ -1511,7 +1511,7 @@
         <v>4.438480909245756</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>10.57579485171949</v>
+        <v>10.5757948517195</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.602699979171247</v>
@@ -1520,7 +1520,7 @@
         <v>2.961713364168209</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.6351152846298</v>
+        <v>8.635115284629805</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.225338565912479</v>
+        <v>-6.025406223719779</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.409991687792524</v>
+        <v>-2.944031438448234</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5177351207127321</v>
+        <v>0.8554028474880457</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.823227429117863</v>
+        <v>5.210867694953641</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8171243014248252</v>
+        <v>-1.010558505602973</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.518714735654011</v>
+        <v>5.520147796856981</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.894144975045127</v>
+        <v>1.613186277798075</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.6647180883700471</v>
+        <v>-0.5313395672693666</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.938174384675442</v>
+        <v>4.792453679831396</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.908458677813209</v>
+        <v>5.058902908146358</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.273840777846161</v>
+        <v>7.78856361136394</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.18579867191123</v>
+        <v>11.56843987974737</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.25041423373895</v>
+        <v>15.71994558213395</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.954737996766312</v>
+        <v>9.313928832839983</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.99212604008614</v>
+        <v>15.33077895999998</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.378354077404863</v>
+        <v>9.120073143281724</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.782919474941575</v>
+        <v>6.604469960219383</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.15619883897567</v>
+        <v>12.00764096596683</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1311049936325473</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3185144138855309</v>
+        <v>0.3185144138855312</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3553893251211036</v>
@@ -1616,7 +1616,7 @@
         <v>0.1580388271141012</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3765671742968298</v>
+        <v>0.3765671742968302</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2250379458498689</v>
@@ -1625,7 +1625,7 @@
         <v>0.118960125322846</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3468378840655571</v>
+        <v>0.3468378840655573</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2696469034180439</v>
+        <v>-0.263584120900194</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1073731710088184</v>
+        <v>-0.1279728072395326</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.02714649531924455</v>
+        <v>0.03502408094850466</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1549779060330766</v>
+        <v>0.1612821945608283</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0285636001183235</v>
+        <v>-0.03441261465778182</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1758691349501929</v>
+        <v>0.179248642661694</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06796859784713551</v>
+        <v>0.05858719468490979</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.02418450157447175</v>
+        <v>-0.02096569030365196</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1803479515912407</v>
+        <v>0.1734368589231717</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2978519258341264</v>
+        <v>0.3108359019297965</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5156940645698381</v>
+        <v>0.4721291919110568</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.743756351394914</v>
+        <v>0.7014945140030741</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5985462309370239</v>
+        <v>0.6305169063298196</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3879243955317915</v>
+        <v>0.371678922950224</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6020701449702236</v>
+        <v>0.6107085178826154</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4012428171042157</v>
+        <v>0.3951723957615594</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3014765865626812</v>
+        <v>0.2860516949584632</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5353042443288273</v>
+        <v>0.5239120650630775</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.421359962733168</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.4266067109594221</v>
+        <v>0.4266067109594214</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>1.528697314013167</v>
@@ -1725,7 +1725,7 @@
         <v>-2.169914832206038</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.4824379307767468</v>
+        <v>-0.4824379307767412</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.338745252240303</v>
@@ -1734,7 +1734,7 @@
         <v>-2.554111136171711</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.189167406887814</v>
+        <v>-1.189167406887809</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.533399616620641</v>
+        <v>-2.783262380848813</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.445237969605007</v>
+        <v>-4.634415221634842</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.865121561004103</v>
+        <v>-2.62768783078117</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.389900108482428</v>
+        <v>-2.824816654486487</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.940008064909833</v>
+        <v>-6.971291723668037</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.503041344221895</v>
+        <v>-4.745664496748557</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.930146910782901</v>
+        <v>-2.023027492534923</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-5.958761555262557</v>
+        <v>-5.984389495119777</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.431017754835449</v>
+        <v>-4.784362941323019</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.365148176743849</v>
+        <v>4.449187585889783</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.374373168700951</v>
+        <v>1.409735779988151</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.653153427358705</v>
+        <v>3.722375153399732</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.283374749133288</v>
+        <v>5.625173076133031</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.941616475521284</v>
+        <v>1.709486605485046</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.469338622218332</v>
+        <v>3.277374519791154</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.666774753793223</v>
+        <v>4.572604608868134</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.5207480953672687</v>
+        <v>0.5289230180231205</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.230204017777996</v>
+        <v>2.161026158147668</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.3736184669556937</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.112137776158531</v>
+        <v>0.1121377761585308</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.04279641586569157</v>
@@ -1830,7 +1830,7 @@
         <v>-0.06074752451054683</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.01350601857257371</v>
+        <v>-0.01350601857257356</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.04527693094190929</v>
@@ -1839,7 +1839,7 @@
         <v>-0.08638111943768848</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.04021814491586662</v>
+        <v>-0.04021814491586643</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5196459948401827</v>
+        <v>-0.5256117696348954</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7922224521722064</v>
+        <v>-0.8268451708885186</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5631756970539727</v>
+        <v>-0.5523037693335617</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.06340700720762592</v>
+        <v>-0.07687658250823133</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1603465547222542</v>
+        <v>-0.1800731229372314</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1195301053972553</v>
+        <v>-0.1267878853562753</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.05909223014731142</v>
+        <v>-0.06543129375316262</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1933987427256498</v>
+        <v>-0.1956363537234375</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1440428527901835</v>
+        <v>-0.1529117099252319</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.718877273179533</v>
+        <v>1.943953881666641</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6781874659695513</v>
+        <v>0.7972755293118305</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.507999029602999</v>
+        <v>1.673962587813333</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.155740971816372</v>
+        <v>0.1642227060448768</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0585360158031429</v>
+        <v>0.04982241172162488</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1035706496215676</v>
+        <v>0.09747712782536812</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1712057188208876</v>
+        <v>0.1634227421537952</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.01826200302957538</v>
+        <v>0.01799251781683326</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.07603796950332165</v>
+        <v>0.07738598813881085</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.9248299525469073</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5.376965795435734</v>
+        <v>5.37696579543574</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.891573648509698</v>
@@ -1948,7 +1948,7 @@
         <v>-0.09265812815974772</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.456743696968851</v>
+        <v>4.456743696968846</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1293087882743688</v>
+        <v>0.2747622980305073</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.8730334981857473</v>
+        <v>-0.8177971217948227</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.550789896706568</v>
+        <v>3.521235278921336</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.151524398985799</v>
+        <v>-0.3675803224807885</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.173475667472401</v>
+        <v>-3.314705608256152</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.375001544939696</v>
+        <v>1.348364527982423</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.5447989360182142</v>
+        <v>0.5023427780590308</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.525584181012205</v>
+        <v>-1.621232232813345</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.979385804785475</v>
+        <v>3.045987424853208</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.842714565435471</v>
+        <v>3.884023781842647</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.692574350536986</v>
+        <v>2.700266735570151</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.151061993151908</v>
+        <v>7.172454148001034</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.115634971250761</v>
+        <v>4.04912785128433</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.156700695958637</v>
+        <v>1.106901282046255</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.384300144034341</v>
+        <v>5.389278392691786</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.432331289767148</v>
+        <v>3.611068381849651</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.487703748131505</v>
+        <v>1.386110576824312</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.775992038917367</v>
+        <v>5.783502597922249</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.05852329632445144</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3402547265106715</v>
+        <v>0.3402547265106718</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.06960762776105885</v>
@@ -2053,7 +2053,7 @@
         <v>-0.004293485676937764</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2065114589378353</v>
+        <v>0.206511458937835</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.008134338502959802</v>
+        <v>0.01691335827811531</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.05406134940394521</v>
+        <v>-0.05030736185727602</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2120863569737596</v>
+        <v>0.2055452954377946</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.00484465004626648</v>
+        <v>-0.01209482970292006</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.110808314482145</v>
+        <v>-0.117251584691334</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04951727311631877</v>
+        <v>0.04717840358233066</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02257073290105501</v>
+        <v>0.02237105283729306</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.06884254960159648</v>
+        <v>-0.07369881827762484</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.134306414365737</v>
+        <v>0.1335691222193993</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2575816020583152</v>
+        <v>0.2646968899060615</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1788148679703317</v>
+        <v>0.1801771046633725</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4775292176838805</v>
+        <v>0.4847136136321051</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1572485538920954</v>
+        <v>0.1570625604234243</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04440591103764181</v>
+        <v>0.04240358270927108</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2067793654577822</v>
+        <v>0.2063093546440601</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1627453402295315</v>
+        <v>0.1752785661479627</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07168044098967008</v>
+        <v>0.06582083093472424</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.277759177263755</v>
+        <v>0.2776720116094177</v>
       </c>
     </row>
     <row r="46">
